--- a/analyse/RU (Ответы).xlsx
+++ b/analyse/RU (Ответы).xlsx
@@ -83,7 +83,7 @@
     <t>Нет</t>
   </si>
   <si>
-    <t>Сложность поиска жилья/общежития, Нехватка информации о факультетах и программах, Отсутствие знакомых/сообщества для обмена опытом, рудности с пониманием административных процессов (документы, дедлайны), Языковой барьер</t>
+    <t>Сложность поиска жилья/общежития, Нехватка информации о факультетах и программах, Отсутствие знакомых/сообщества для обмена опытом, Трудности с пониманием административных процессов (документы, дедлайны), Языковой барьер</t>
   </si>
   <si>
     <t>Социальные сети (Facebook, Instagram), Помощь старшекурсников (наставничество)</t>
@@ -113,7 +113,7 @@
     <t>Культурные (концерты, выставки), Научные (конференции, семинары, хакатоны), Спортивные (соревнования, секции), Развлекательные (вечеринки, игры, квизы), Образовательные</t>
   </si>
   <si>
-    <t>рудности с пониманием административных процессов (документы, дедлайны)</t>
+    <t>Трудности с пониманием административных процессов (документы, дедлайны)</t>
   </si>
   <si>
     <t>Помощь старшекурсников (наставничество), Личные знакомства и дружеские связи</t>
@@ -122,7 +122,7 @@
     <t>Научные (конференции, семинары, хакатоны), Развлекательные (вечеринки, игры, квизы), Волонтёрские</t>
   </si>
   <si>
-    <t>Сложность поиска жилья/общежития, Отсутствие знакомых/сообщества для обмена опытом, рудности с пониманием административных процессов (документы, дедлайны)</t>
+    <t>Сложность поиска жилья/общежития, Отсутствие знакомых/сообщества для обмена опытом, Трудности с пониманием административных процессов (документы, дедлайны)</t>
   </si>
   <si>
     <t>Официальный веб-сайт университета</t>
@@ -131,7 +131,7 @@
     <t>Культурные (концерты, выставки), Спортивные (соревнования, секции), Развлекательные (вечеринки, игры, квизы)</t>
   </si>
   <si>
-    <t>Сложность поиска жилья/общежития, рудности с пониманием административных процессов (документы, дедлайны)</t>
+    <t>Сложность поиска жилья/общежития, Трудности с пониманием административных процессов (документы, дедлайны)</t>
   </si>
   <si>
     <t>От других людей (студентов, преподавателей)</t>
@@ -140,7 +140,7 @@
     <t>Культурные (концерты, выставки), Научные (конференции, семинары, хакатоны), Развлекательные (вечеринки, игры, квизы)</t>
   </si>
   <si>
-    <t>Сложность поиска жилья/общежития, Отсутствие знакомых/сообщества для обмена опытом, рудности с пониманием административных процессов (документы, дедлайны), Языковой барьер</t>
+    <t>Сложность поиска жилья/общежития, Отсутствие знакомых/сообщества для обмена опытом, Трудности с пониманием административных процессов (документы, дедлайны), Языковой барьер</t>
   </si>
   <si>
     <t>Культурные (концерты, выставки), Научные (конференции, семинары, хакатоны), Развлекательные (вечеринки, игры, квизы), Волонтёрские, Образовательные</t>
@@ -173,7 +173,7 @@
     <t xml:space="preserve">Я пидор гырлы гырлы горловой </t>
   </si>
   <si>
-    <t>Отсутствие знакомых/сообщества для обмена опытом, рудности с пониманием административных процессов (документы, дедлайны)</t>
+    <t>Отсутствие знакомых/сообщества для обмена опытом, Трудности с пониманием административных процессов (документы, дедлайны)</t>
   </si>
   <si>
     <t>Личные знакомства и дружеские связи, Никакие ресурсы особенно не помогли</t>
@@ -194,7 +194,7 @@
     <t>Культурные (концерты, выставки), Научные (конференции, семинары, хакатоны), Спортивные (соревнования, секции), Развлекательные (вечеринки, игры, квизы)</t>
   </si>
   <si>
-    <t>Нехватка информации о факультетах и программах, рудности с пониманием административных процессов (документы, дедлайны), Языковой барьер</t>
+    <t>Нехватка информации о факультетах и программах, Трудности с пониманием административных процессов (документы, дедлайны), Языковой барьер</t>
   </si>
   <si>
     <t>Культурные (концерты, выставки), Научные (конференции, семинары, хакатоны), Образовательные</t>
@@ -203,7 +203,7 @@
     <t>Нехватка информации о факультетах и программах</t>
   </si>
   <si>
-    <t>Сложность поиска жилья/общежития, Нехватка информации о факультетах и программах, Отсутствие знакомых/сообщества для обмена опытом, рудности с пониманием административных процессов (документы, дедлайны)</t>
+    <t>Сложность поиска жилья/общежития, Нехватка информации о факультетах и программах, Отсутствие знакомых/сообщества для обмена опытом, Трудности с пониманием административных процессов (документы, дедлайны)</t>
   </si>
   <si>
     <t>Консультации с кураторами, преподавателями</t>
@@ -215,13 +215,13 @@
     <t>Культурные (концерты, выставки), Спортивные (соревнования, секции), Развлекательные (вечеринки, игры, квизы), Волонтёрские, Образовательные</t>
   </si>
   <si>
-    <t>рудности с пониманием административных процессов (документы, дедлайны), Языковой барьер</t>
+    <t>Трудности с пониманием административных процессов (документы, дедлайны), Языковой барьер</t>
   </si>
   <si>
     <t>Культурные (концерты, выставки), Научные (конференции, семинары, хакатоны), Спортивные (соревнования, секции), Развлекательные (вечеринки, игры, квизы), Волонтёрские, Образовательные</t>
   </si>
   <si>
-    <t>Нехватка информации о факультетах и программах, Отсутствие знакомых/сообщества для обмена опытом, рудности с пониманием административных процессов (документы, дедлайны), Языковой барьер</t>
+    <t>Нехватка информации о факультетах и программах, Отсутствие знакомых/сообщества для обмена опытом, Трудности с пониманием административных процессов (документы, дедлайны), Языковой барьер</t>
   </si>
   <si>
     <t>Никакие ресурсы особенно не помогли</t>
@@ -230,7 +230,7 @@
     <t>Культурные (концерты, выставки), Образовательные</t>
   </si>
   <si>
-    <t>Отсутствие знакомых/сообщества для обмена опытом, рудности с пониманием административных процессов (документы, дедлайны), Языковой барьер</t>
+    <t>Отсутствие знакомых/сообщества для обмена опытом, Трудности с пониманием административных процессов (документы, дедлайны), Языковой барьер</t>
   </si>
   <si>
     <t>Отсутствие знакомых/сообщества для обмена опытом</t>
@@ -257,7 +257,7 @@
     <t>Консультации с кураторами, преподавателями, Личные знакомства и дружеские связи</t>
   </si>
   <si>
-    <t>Сложность поиска жилья/общежития, рудности с пониманием административных процессов (документы, дедлайны), Языковой барьер</t>
+    <t>Сложность поиска жилья/общежития, Трудности с пониманием административных процессов (документы, дедлайны), Языковой барьер</t>
   </si>
   <si>
     <t>Facebook</t>
